--- a/Documentation/BOMs/BOM_V1.0.xlsx
+++ b/Documentation/BOMs/BOM_V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>3D Metal Printer</t>
-  </si>
-  <si>
-    <t>Bill of Materials</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Item</t>
   </si>
@@ -106,6 +100,27 @@
   </si>
   <si>
     <t>Motor Controller</t>
+  </si>
+  <si>
+    <t>3D Metal Printer BOM_V1.0</t>
+  </si>
+  <si>
+    <t>50 Pin Breakout Board</t>
+  </si>
+  <si>
+    <t>PCB + Routing</t>
+  </si>
+  <si>
+    <t>Screw Terminals</t>
+  </si>
+  <si>
+    <t>50 Pin Connector</t>
+  </si>
+  <si>
+    <t>26 Pin Breakout Board</t>
+  </si>
+  <si>
+    <t>Incremental Encoder</t>
   </si>
 </sst>
 </file>
@@ -115,10 +130,34 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,14 +180,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,75 +528,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -555,7 +600,7 @@
         <v>826</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>677</v>
@@ -563,7 +608,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -571,62 +616,114 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/BOMs/BOM_V1.0.xlsx
+++ b/Documentation/BOMs/BOM_V1.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Item</t>
   </si>
@@ -60,9 +60,6 @@
     <t>This is all of the bracetry and hardware for the CNC Machine</t>
   </si>
   <si>
-    <t>Limit Switches</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCI I/O Card </t>
   </si>
   <si>
@@ -121,6 +118,42 @@
   </si>
   <si>
     <t>Incremental Encoder</t>
+  </si>
+  <si>
+    <t>Stepper motor for the X axis</t>
+  </si>
+  <si>
+    <t>Stepper Motor for the Y axis</t>
+  </si>
+  <si>
+    <t>Stepper Moto for the Z axis</t>
+  </si>
+  <si>
+    <t>PCI I/O Card with Digital and Analog I/O</t>
+  </si>
+  <si>
+    <t>Limit and Home Switches</t>
+  </si>
+  <si>
+    <t>Interface Card for communicating with servo motors</t>
+  </si>
+  <si>
+    <t>I/O card used for limit and home switches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp range x -x </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outputs a single Voltage</t>
+  </si>
+  <si>
+    <t>Wire Feed Welder that uses inert sheilding gas</t>
+  </si>
+  <si>
+    <t>Used for controlling the motors on the welder control knobs</t>
+  </si>
+  <si>
+    <t>Used for connecting signals to the PCIe card</t>
   </si>
 </sst>
 </file>
@@ -531,7 +564,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -539,11 +572,12 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -578,16 +612,25 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -605,10 +648,13 @@
       <c r="E9" s="1">
         <v>677</v>
       </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -616,58 +662,73 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>26</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -675,55 +736,66 @@
       <c r="C17">
         <v>5056</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/BOMs/BOM_V1.0.xlsx
+++ b/Documentation/BOMs/BOM_V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Item</t>
   </si>
@@ -105,9 +105,6 @@
     <t>50 Pin Breakout Board</t>
   </si>
   <si>
-    <t>PCB + Routing</t>
-  </si>
-  <si>
     <t>Screw Terminals</t>
   </si>
   <si>
@@ -153,15 +150,52 @@
     <t>Used for controlling the motors on the welder control knobs</t>
   </si>
   <si>
-    <t>Used for connecting signals to the PCIe card</t>
+    <t>KL-5056D</t>
+  </si>
+  <si>
+    <t>Keling Technology Inc</t>
+  </si>
+  <si>
+    <t>26 Pin Connector</t>
+  </si>
+  <si>
+    <t>US Digital</t>
+  </si>
+  <si>
+    <t>Micro-Epsilon</t>
+  </si>
+  <si>
+    <t>1MH1-CF4</t>
+  </si>
+  <si>
+    <t>S5-5000-250-IE-D-B</t>
+  </si>
+  <si>
+    <t>MIG 180</t>
+  </si>
+  <si>
+    <t>Stepper Motors</t>
+  </si>
+  <si>
+    <t>Used for controlling the knobs on the welder</t>
+  </si>
+  <si>
+    <t>Used for measuring the wire speed of the welder</t>
+  </si>
+  <si>
+    <t>Used to connect to the counter channels of the Sensoray 826 board.</t>
+  </si>
+  <si>
+    <t>Used to connect to the analog and digital channels of the Sensoray 826</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -213,12 +247,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -228,10 +270,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,17 +615,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,67 +658,67 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="6"/>
       <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="F7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>826</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1">
-        <v>677</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
@@ -678,11 +732,17 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -692,110 +752,184 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>5056</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C18" s="6"/>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C21" s="6"/>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>826</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1">
+        <v>677</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="5">
+        <v>79.95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/BOMs/BOM_V1.0.xlsx
+++ b/Documentation/BOMs/BOM_V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Item</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Used to connect to the analog and digital channels of the Sensoray 826</t>
+  </si>
+  <si>
+    <t>PWM Module</t>
+  </si>
+  <si>
+    <t>Used for externally setting CNC speed</t>
   </si>
 </sst>
 </file>
@@ -615,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -923,13 +929,26 @@
       <c r="A30" t="s">
         <v>51</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
       <c r="F30" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/BOMs/BOM_V1.0.xlsx
+++ b/Documentation/BOMs/BOM_V1.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>Item</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Z - Stepper Motor</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Sensoray</t>
   </si>
   <si>
@@ -193,6 +190,84 @@
   </si>
   <si>
     <t>Used for externally setting CNC speed</t>
+  </si>
+  <si>
+    <t>THC-AD</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>Motor Driver</t>
+  </si>
+  <si>
+    <t>Price Each</t>
+  </si>
+  <si>
+    <t>Controller PC</t>
+  </si>
+  <si>
+    <t>Computer used to control welder</t>
+  </si>
+  <si>
+    <t>c20058</t>
+  </si>
+  <si>
+    <t>KL23H2100-35-4B</t>
+  </si>
+  <si>
+    <t>Servo Dynamics</t>
+  </si>
+  <si>
+    <t>SD94</t>
+  </si>
+  <si>
+    <t>Z15G1308</t>
+  </si>
+  <si>
+    <t>IG34CK-32-IE8192-SB213</t>
+  </si>
+  <si>
+    <t>HIGHLY</t>
+  </si>
+  <si>
+    <t>HJ130E8-1308</t>
+  </si>
+  <si>
+    <t>Relay Module</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>~$20</t>
+  </si>
+  <si>
+    <t>~$500</t>
+  </si>
+  <si>
+    <t>Aram</t>
+  </si>
+  <si>
+    <t>Current Sensor Module</t>
+  </si>
+  <si>
+    <t>Capstone 2015 Team</t>
+  </si>
+  <si>
+    <t>~$5</t>
+  </si>
+  <si>
+    <t>~$10</t>
+  </si>
+  <si>
+    <t>Motor driver for XYZ axis motors.</t>
+  </si>
+  <si>
+    <t>Any limit and home switched used on the machine</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -203,7 +278,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,6 +310,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,7 +335,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -265,8 +347,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,18 +376,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,23 +734,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -654,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -664,9 +777,20 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -676,9 +800,17 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1">
+        <v>400</v>
+      </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -688,9 +820,17 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1">
+        <v>800</v>
+      </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -700,76 +840,121 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1">
+        <v>450</v>
+      </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" s="6"/>
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1">
+        <v>550</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E12" s="1">
+        <v>250</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="6"/>
@@ -781,174 +966,303 @@
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C18" s="6"/>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6"/>
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="6"/>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>826</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
       <c r="E25" s="1">
-        <v>677</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>48</v>
+      <c r="C26" s="6">
+        <v>826</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>677</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1400</v>
+      </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="5">
-        <v>79.95</v>
+        <v>58</v>
+      </c>
+      <c r="E28" s="1">
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="E29" s="5">
+        <v>270</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1">
+        <v>80</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
         <v>56</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>57</v>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1">
+        <v>80</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
